--- a/PAPERWORK/Data Processing Excel/user1learnability.xlsx
+++ b/PAPERWORK/Data Processing Excel/user1learnability.xlsx
@@ -5,56 +5,59 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laszlau/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laszlau/Documents/GitHub/BUAA-Graduation-Project/PAPERWORK/Data Processing Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D818CAF-20C2-DB4F-9C21-3E7ABAED5936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC4AF63-7570-AA46-B010-DA510D2A6A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="9460" windowWidth="27860" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet!$A$2:$A$15</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet!$A$2:$A$7</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet!$D$2:$D$7</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet!$A$2:$A$15</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet!$A$2:$A$7</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet!$B$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet!$B$2:$B$15</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet!$B$2:$B$7</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet!$C$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet!$C$2:$C$15</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet!$A$2:$A$7</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet!$B$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet!$C$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet!$C$2:$C$7</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet!$D$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet!$D$2:$D$7</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet!$A$2:$A$7</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet!$B$1</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet!$B$2:$B$7</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet!$C$1</definedName>
     <definedName name="_xlchart.v1.18" hidden="1">Sheet!$C$2:$C$7</definedName>
     <definedName name="_xlchart.v1.19" hidden="1">Sheet!$D$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet!$B$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet!$D$2:$D$15</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet!$D$2:$D$7</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet!$A$2:$A$15</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet!$B$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet!$B$2:$B$15</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet!$C$1</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet!$C$2:$C$15</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet!$D$1</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet!$D$2:$D$15</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet!$B$2:$B$15</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet!$B$2:$B$7</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet!$C$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet!$C$2:$C$15</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet!$C$2:$C$7</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet!$D$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet!$D$2:$D$15</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet!$B$2:$B$7</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet!$D$2:$D$7</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet!$A$2:$A$7</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet!$B$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet!$B$2:$B$7</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet!$C$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet!$C$2:$C$7</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet!$D$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet!$D$2:$D$7</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet!$A$2:$A$7</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet!$C$1</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Sheet!$B$2:$B$7</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Sheet!$C$1</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Sheet!$C$2:$C$7</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Sheet!$D$1</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Sheet!$D$2:$D$7</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet!$C$2:$C$7</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet!$D$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet!$D$2:$D$7</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet!$A$2:$A$7</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet!$B$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet!$B$2:$B$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
-  <si>
-    <t>User Study 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Novice</t>
   </si>
@@ -147,26 +150,26 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.16</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.18</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.20</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -176,7 +179,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{04FB6971-0E49-5F42-8C6C-8E2018D702CA}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.15</cx:f>
               <cx:v>Novice</cx:v>
             </cx:txData>
           </cx:tx>
@@ -188,7 +191,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{9C445C20-6589-5C45-B001-25EE8EAE50DF}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.17</cx:f>
               <cx:v>Intermediate</cx:v>
             </cx:txData>
           </cx:tx>
@@ -200,7 +203,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{99C9AEDF-EEC7-9946-8318-3EEE714FC241}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.19</cx:f>
               <cx:v>Expert</cx:v>
             </cx:txData>
           </cx:tx>
@@ -262,7 +265,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -270,9 +273,9 @@
                     <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>Completion Time</a:t>
+                  <a:t>Completion Time (s)</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -284,6 +287,7 @@
             </cx:rich>
           </cx:tx>
         </cx:title>
+        <cx:majorGridlines/>
         <cx:majorTickMarks type="out"/>
         <cx:tickLabels/>
         <cx:spPr>
@@ -298,11 +302,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1800" baseline="0">
+              <a:defRPr sz="2000" baseline="0">
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
@@ -316,17 +320,17 @@
         </cx:txPr>
       </cx:axis>
     </cx:plotArea>
-    <cx:legend pos="r" align="min" overlay="0">
+    <cx:legend pos="b" align="ctr" overlay="0">
       <cx:txPr>
         <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1400" baseline="0">
+            <a:defRPr sz="2000" baseline="0">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000">
                 <a:lumMod val="65000"/>
@@ -340,6 +344,11 @@
       </cx:txPr>
     </cx:legend>
   </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -904,14 +913,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>500062</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>50801</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>195262</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>4763</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -947,8 +956,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8577262" y="1995487"/>
-              <a:ext cx="5080000" cy="2797175"/>
+              <a:off x="8577262" y="1041401"/>
+              <a:ext cx="5080000" cy="3751262"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1301,29 +1310,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953A283F-8D03-449C-8A2C-91AD748A9256}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="B1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="2:4">
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
+    <row r="2" spans="2:4">
       <c r="B2">
         <v>9.5</v>
       </c>
@@ -1334,10 +1340,7 @@
         <v>8.11</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
+    <row r="3" spans="2:4">
       <c r="B3">
         <v>8.98</v>
       </c>
@@ -1348,10 +1351,7 @@
         <v>8.44</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
+    <row r="4" spans="2:4">
       <c r="B4">
         <v>11.51</v>
       </c>
@@ -1362,10 +1362,7 @@
         <v>8.99</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
+    <row r="5" spans="2:4">
       <c r="B5">
         <v>8.33</v>
       </c>
@@ -1376,18 +1373,12 @@
         <v>9.01</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
+    <row r="6" spans="2:4">
       <c r="C6">
         <v>10.25</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
+    <row r="7" spans="2:4">
       <c r="C7">
         <v>12.29</v>
       </c>

--- a/PAPERWORK/Data Processing Excel/user1learnability.xlsx
+++ b/PAPERWORK/Data Processing Excel/user1learnability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laszlau/Documents/GitHub/BUAA-Graduation-Project/PAPERWORK/Data Processing Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC4AF63-7570-AA46-B010-DA510D2A6A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269B2ECE-278A-9241-81DE-95B21A8301C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
@@ -37,14 +37,7 @@
     <definedName name="_xlchart.v1.25" hidden="1">Sheet!$C$2:$C$7</definedName>
     <definedName name="_xlchart.v1.26" hidden="1">Sheet!$D$1</definedName>
     <definedName name="_xlchart.v1.27" hidden="1">Sheet!$D$2:$D$7</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet!$A$2:$A$7</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet!$B$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet!$C$1</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet!$B$2:$B$7</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet!$C$1</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet!$C$2:$C$7</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet!$D$1</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet!$D$2:$D$7</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Sheet!$C$2:$C$7</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Sheet!$D$1</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Sheet!$D$2:$D$7</definedName>
@@ -150,26 +143,26 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.18</cx:f>
+        <cx:f>_xlchart.v1.25</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.20</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -179,7 +172,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{04FB6971-0E49-5F42-8C6C-8E2018D702CA}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.15</cx:f>
+              <cx:f>_xlchart.v1.22</cx:f>
               <cx:v>Novice</cx:v>
             </cx:txData>
           </cx:tx>
@@ -191,7 +184,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{9C445C20-6589-5C45-B001-25EE8EAE50DF}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.17</cx:f>
+              <cx:f>_xlchart.v1.24</cx:f>
               <cx:v>Intermediate</cx:v>
             </cx:txData>
           </cx:tx>
@@ -203,7 +196,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{99C9AEDF-EEC7-9946-8318-3EEE714FC241}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.19</cx:f>
+              <cx:f>_xlchart.v1.26</cx:f>
               <cx:v>Expert</cx:v>
             </cx:txData>
           </cx:tx>
@@ -353,42 +346,8 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="26">
   <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -913,8 +872,8 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>500062</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>50801</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
@@ -956,8 +915,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8577262" y="1041401"/>
-              <a:ext cx="5080000" cy="3751262"/>
+              <a:off x="8577262" y="889000"/>
+              <a:ext cx="5080000" cy="3903663"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>

--- a/PAPERWORK/Data Processing Excel/user1learnability.xlsx
+++ b/PAPERWORK/Data Processing Excel/user1learnability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laszlau/Documents/GitHub/BUAA-Graduation-Project/PAPERWORK/Data Processing Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269B2ECE-278A-9241-81DE-95B21A8301C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D403ADD0-8F1A-3247-92CB-659B334860F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="500" windowWidth="35100" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
@@ -22,21 +22,7 @@
     <definedName name="_xlchart.v1.11" hidden="1">Sheet!$C$2:$C$7</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">Sheet!$D$1</definedName>
     <definedName name="_xlchart.v1.13" hidden="1">Sheet!$D$2:$D$7</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet!$A$2:$A$7</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet!$B$1</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet!$B$2:$B$7</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet!$C$1</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet!$C$2:$C$7</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet!$D$1</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet!$B$2:$B$7</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet!$D$2:$D$7</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet!$A$2:$A$7</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet!$B$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet!$B$2:$B$7</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet!$C$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet!$C$2:$C$7</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet!$D$1</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet!$D$2:$D$7</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet!$C$1</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Sheet!$C$2:$C$7</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Sheet!$D$1</definedName>
@@ -143,26 +129,26 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -172,7 +158,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{04FB6971-0E49-5F42-8C6C-8E2018D702CA}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>Novice</cx:v>
             </cx:txData>
           </cx:tx>
@@ -184,7 +170,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{9C445C20-6589-5C45-B001-25EE8EAE50DF}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>Intermediate</cx:v>
             </cx:txData>
           </cx:tx>
@@ -196,7 +182,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{99C9AEDF-EEC7-9946-8318-3EEE714FC241}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.26</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v>Expert</cx:v>
             </cx:txData>
           </cx:tx>
@@ -873,13 +859,13 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>500062</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>63501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>195262</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -915,8 +901,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8577262" y="889000"/>
-              <a:ext cx="5080000" cy="3903663"/>
+              <a:off x="8577262" y="889001"/>
+              <a:ext cx="5080000" cy="2501899"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1272,7 +1258,7 @@
   <dimension ref="B1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
